--- a/data/factor_viii_2024.xlsx
+++ b/data/factor_viii_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\mohammad\projects\Thesis\hemophilia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC168DC-660F-40B1-AA0C-CFA948FEE64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6662536-6942-4A2D-AE2D-33BD849F8689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>index_latin_name</t>
   </si>
@@ -57,75 +57,33 @@
     <t>COAGULATION FACTOR VIII (RECOMBINANT)</t>
   </si>
   <si>
-    <t>HAEMOCTIN   INJECTION, POWDER, LYOPHILIZED, FOR SOLUTION PARENTERAL 1000 [iU]  [iU]</t>
-  </si>
-  <si>
     <t>COAGULATION FACTOR VIII (HUMAN PLASMA DERIVED) INJECTION, POWDER, LYOPHILIZED, FOR SOLUTION PARENTERAL 1000 [iU]</t>
   </si>
   <si>
-    <t>HAEMATE P   INJECTION, POWDER, LYOPHILIZED, FOR SOLUTION PARENTERAL 500 [iU]/1200 [iU]  mL</t>
-  </si>
-  <si>
     <t>FACTOR VIII / VON WILLEBRAND FACTOR INJECTION, POWDER, LYOPHILIZED, FOR SOLUTION PARENTERAL 500 [iU]/1200 [iU]</t>
   </si>
   <si>
     <t>COAGULATION FACTOR VIII (HUMAN PLASMA DERIVED)</t>
   </si>
   <si>
-    <t>HAEMOCTIN   INJECTION, POWDER, LYOPHILIZED, FOR SOLUTION PARENTERAL 500 [iU]  [iU]</t>
-  </si>
-  <si>
     <t>COAGULATION FACTOR VIII (HUMAN PLASMA DERIVED) INJECTION, POWDER, LYOPHILIZED, FOR SOLUTION PARENTERAL 500 [iU]</t>
   </si>
   <si>
-    <t>EMOCLOT   INJECTION, POWDER, LYOPHILIZED, FOR SOLUTION PARENTERAL 500 [iU]  [iU]</t>
-  </si>
-  <si>
-    <t>FACTOR VIII / VON WILLEBRAND FACTOR</t>
-  </si>
-  <si>
-    <t>OCTANATE   INJECTION, POWDER, LYOPHILIZED, FOR SOLUTION PARENTERAL 250 [iU]  [iU]</t>
-  </si>
-  <si>
     <t>COAGULATION FACTOR VIII (HUMAN PLASMA DERIVED) INJECTION, POWDER, LYOPHILIZED, FOR SOLUTION PARENTERAL 250 [iU]</t>
   </si>
   <si>
-    <t>WILATE   INJECTION, POWDER, LYOPHILIZED, FOR SOLUTION PARENTERAL 500 [iU]/500 [iU]  [iU]</t>
-  </si>
-  <si>
     <t>FACTOR VIII / VON WILLEBRAND FACTOR INJECTION, POWDER, LYOPHILIZED, FOR SOLUTION PARENTERAL 500 [iU]/500 [iU]</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>SAFACTO AF   INJECTION, POWDER, LYOPHILIZED, FOR SOLUTION PARENTERAL 500 [iU]  [iU]</t>
-  </si>
-  <si>
     <t>COAGULATION FACTOR VIII (RECOMBINANT) INJECTION, POWDER, LYOPHILIZED, FOR SOLUTION PARENTERAL 500 [iU]</t>
   </si>
   <si>
-    <t>XYNTHA   INJECTION, POWDER, LYOPHILIZED, FOR SOLUTION PARENTERAL 500 [iU]  [iU]</t>
-  </si>
-  <si>
-    <t>COAGEIGHT   INJECTION, POWDER, LYOPHILIZED, FOR SOLUTION PARENTERAL 500 [iU]  [iU]</t>
-  </si>
-  <si>
-    <t>NOVOEIGHT   INJECTION, POWDER, LYOPHILIZED, FOR SOLUTION PARENTERAL 500 [iU]  [iU]</t>
-  </si>
-  <si>
-    <t>COAGEIGHT   INJECTION, POWDER, LYOPHILIZED, FOR SOLUTION PARENTERAL 1000 [iU]  [iU]</t>
-  </si>
-  <si>
     <t>COAGULATION FACTOR VIII (RECOMBINANT) INJECTION, POWDER, LYOPHILIZED, FOR SOLUTION PARENTERAL 1000 [iU]</t>
   </si>
   <si>
-    <t>NOVOEIGHT   INJECTION, POWDER, LYOPHILIZED, FOR SOLUTION PARENTERAL 1000 [iU]  [iU]</t>
-  </si>
-  <si>
-    <t>COAGEIGHT   INJECTION, POWDER, LYOPHILIZED, FOR SOLUTION PARENTERAL 2000 [iU]  [iU]</t>
-  </si>
-  <si>
     <t>COAGULATION FACTOR VIII (RECOMBINANT) INJECTION, POWDER, LYOPHILIZED, FOR SOLUTION PARENTERAL 2000 [iU]</t>
   </si>
   <si>
@@ -136,6 +94,42 @@
   </si>
   <si>
     <t>VON WILLBRAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAEMOCTIN </t>
+  </si>
+  <si>
+    <t>HAEMOCTIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMOCLOT  </t>
+  </si>
+  <si>
+    <t>SAFACTO AF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XYNTHA  </t>
+  </si>
+  <si>
+    <t>COAGEIGHT</t>
+  </si>
+  <si>
+    <t>NOVOEIGHT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOVOEIGHT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COAGEIGHT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WILATE  </t>
+  </si>
+  <si>
+    <t>OCTANATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAEMATE P  </t>
   </si>
 </sst>
 </file>
@@ -516,14 +510,14 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
-    <col min="2" max="2" width="82.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="108.44140625" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
@@ -551,7 +545,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -559,10 +553,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
       </c>
       <c r="D2">
         <v>5728</v>
@@ -583,164 +577,164 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3">
-        <v>9563</v>
+        <v>12544</v>
       </c>
       <c r="E3">
-        <v>8795100783659380</v>
+        <v>579693345955352</v>
       </c>
       <c r="F3">
-        <v>51486</v>
+        <v>1727</v>
       </c>
       <c r="G3">
         <v>500</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H13" si="0">G3*F3</f>
-        <v>25743000</v>
+        <f>G3*F3</f>
+        <v>863500</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>12544</v>
       </c>
       <c r="E4">
-        <v>579693345955352</v>
+        <v>6778159353368880</v>
       </c>
       <c r="F4">
-        <v>1727</v>
+        <v>784</v>
       </c>
       <c r="G4">
         <v>500</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
-        <v>863500</v>
+        <f t="shared" ref="H4" si="0">G4*F4</f>
+        <v>392000</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
       <c r="D5">
-        <v>12544</v>
+        <v>52879</v>
       </c>
       <c r="E5">
-        <v>6778159353368880</v>
+        <v>7210201495605780</v>
       </c>
       <c r="F5">
-        <v>784</v>
+        <v>201513</v>
       </c>
       <c r="G5">
         <v>500</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
-        <v>392000</v>
+        <f>G5*F5</f>
+        <v>100756500</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>13238</v>
+        <v>52879</v>
       </c>
       <c r="E6">
-        <v>7181189698679810</v>
+        <v>1582511726644470</v>
       </c>
       <c r="F6">
-        <v>656</v>
+        <v>31945</v>
       </c>
       <c r="G6">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
-        <v>164000</v>
+        <f>G6*F6</f>
+        <v>15972500</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <v>52879</v>
       </c>
       <c r="E7">
-        <v>7210201495605780</v>
+        <v>9400514919064180</v>
       </c>
       <c r="F7">
-        <v>201513</v>
+        <v>108340</v>
       </c>
       <c r="G7">
         <v>500</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
-        <v>100756500</v>
+        <f>G7*F7</f>
+        <v>54170000</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D8">
         <v>52879</v>
       </c>
       <c r="E8">
-        <v>1582511726644470</v>
+        <v>8442429033483490</v>
       </c>
       <c r="F8">
-        <v>31945</v>
+        <v>4462</v>
       </c>
       <c r="G8">
         <v>500</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
-        <v>15972500</v>
+        <f>G8*F8</f>
+        <v>2231000</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -748,64 +742,64 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>52879</v>
+        <v>52880</v>
       </c>
       <c r="E9">
-        <v>9400514919064180</v>
+        <v>8936044413498660</v>
       </c>
       <c r="F9">
-        <v>108340</v>
+        <v>2104</v>
       </c>
       <c r="G9">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
-        <v>54170000</v>
+        <f>G9*F9</f>
+        <v>2104000</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>52879</v>
+        <v>53142</v>
       </c>
       <c r="E10">
-        <v>8442429033483490</v>
+        <v>1114266489716700</v>
       </c>
       <c r="F10">
-        <v>4462</v>
+        <v>12957</v>
       </c>
       <c r="G10">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
-        <v>2231000</v>
+        <f>G10*F10</f>
+        <v>25914000</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
         <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
       </c>
       <c r="D11">
         <v>52880</v>
@@ -820,76 +814,72 @@
         <v>1000</v>
       </c>
       <c r="H11">
-        <f t="shared" si="0"/>
+        <f>G11*F11</f>
         <v>42285000</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>13238</v>
+      </c>
+      <c r="E12">
+        <v>7181189698679810</v>
+      </c>
+      <c r="F12">
+        <v>656</v>
+      </c>
+      <c r="G12">
+        <v>250</v>
+      </c>
+      <c r="H12">
+        <f>G12*F12</f>
+        <v>164000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13">
+        <f>SUM(H2:H12)</f>
+        <v>244872500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12">
-        <v>52880</v>
-      </c>
-      <c r="E12">
-        <v>8936044413498660</v>
-      </c>
-      <c r="F12">
-        <v>2104</v>
-      </c>
-      <c r="G12">
-        <v>1000</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>2104000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>30</v>
       </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13">
-        <v>53142</v>
-      </c>
-      <c r="E13">
-        <v>1114266489716700</v>
-      </c>
-      <c r="F13">
-        <v>12957</v>
-      </c>
-      <c r="G13">
-        <v>2000</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="0"/>
-        <v>25914000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14">
-        <f>SUM(H2:H13)</f>
-        <v>270615500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>34</v>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>51012</v>
+      </c>
+      <c r="E15">
+        <v>7643453470605440</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15">
+        <v>500</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -897,22 +887,26 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D16">
-        <v>51012</v>
+        <v>9563</v>
       </c>
       <c r="E16">
-        <v>7643453470605440</v>
-      </c>
-      <c r="F16" t="s">
-        <v>21</v>
+        <v>8795100783659380</v>
+      </c>
+      <c r="F16">
+        <v>51486</v>
       </c>
       <c r="G16">
         <v>500</v>
+      </c>
+      <c r="H16">
+        <f>G16*F16</f>
+        <v>25743000</v>
       </c>
     </row>
   </sheetData>
